--- a/Datasets/CCASF12010CMAP.xlsx
+++ b/Datasets/CCASF12010CMAP.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlesmarshall/Desktop/CIVE495/ElectricScooterDemandPrediction/ElectricScooterDemandPrediction/Datasets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FF6F03-C217-864D-A41C-8CD42D7CD5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="315" windowWidth="27555" windowHeight="14850"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="27560" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SF1_2010" sheetId="1" r:id="rId1"/>
@@ -491,9 +497,6 @@
     <t>Lower West Side</t>
   </si>
   <si>
-    <t>The Loop</t>
-  </si>
-  <si>
     <t>Near South Side</t>
   </si>
   <si>
@@ -623,9 +626,6 @@
     <t>Morgan Park</t>
   </si>
   <si>
-    <t>O'Hare</t>
-  </si>
-  <si>
     <t>Edgewater</t>
   </si>
   <si>
@@ -648,16 +648,22 @@
   </si>
   <si>
     <t>Not Hispanic or Latino, Two or More Races</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>OHare</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -777,24 +783,27 @@
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="5"/>
-    <cellStyle name="Normal 5 2" xfId="6"/>
-    <cellStyle name="Normal 6" xfId="7"/>
-    <cellStyle name="Normal 6 2" xfId="8"/>
-    <cellStyle name="Normal 7" xfId="9"/>
-    <cellStyle name="Normal 8" xfId="10"/>
-    <cellStyle name="Note 2" xfId="11"/>
-    <cellStyle name="Note 3" xfId="12"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 5 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 6 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 7" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Normal 8" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Note 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Note 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -843,7 +852,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -876,9 +885,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,6 +937,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1086,26 +1129,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DY79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="1"/>
-    <col min="2" max="57" width="24.7109375" style="2"/>
-    <col min="58" max="58" width="24.7109375" style="3"/>
-    <col min="59" max="59" width="24.7109375" style="2"/>
-    <col min="60" max="60" width="24.7109375" style="4"/>
-    <col min="61" max="67" width="24.7109375" style="2"/>
-    <col min="68" max="16384" width="24.7109375" style="5"/>
+    <col min="1" max="1" width="24.6640625" style="1"/>
+    <col min="2" max="57" width="24.6640625" style="2"/>
+    <col min="58" max="58" width="24.6640625" style="3"/>
+    <col min="59" max="59" width="24.6640625" style="2"/>
+    <col min="60" max="60" width="24.6640625" style="4"/>
+    <col min="61" max="67" width="24.6640625" style="2"/>
+    <col min="68" max="16384" width="24.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:129" s="11" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1351,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:129" s="15" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:129" s="15" customFormat="1" ht="76.5" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>67</v>
       </c>
@@ -1319,25 +1362,25 @@
         <v>69</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>70</v>
@@ -1573,7 +1616,7 @@
       <c r="DX2" s="14"/>
       <c r="DY2" s="14"/>
     </row>
-    <row r="3" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:129">
       <c r="A3" s="2" t="s">
         <v>126</v>
       </c>
@@ -1776,7 +1819,7 @@
         <v>17155</v>
       </c>
     </row>
-    <row r="4" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:129">
       <c r="A4" s="2" t="s">
         <v>127</v>
       </c>
@@ -1979,7 +2022,7 @@
         <v>12559</v>
       </c>
     </row>
-    <row r="5" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:129">
       <c r="A5" s="2" t="s">
         <v>128</v>
       </c>
@@ -2182,7 +2225,7 @@
         <v>20191</v>
       </c>
     </row>
-    <row r="6" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:129">
       <c r="A6" s="2" t="s">
         <v>129</v>
       </c>
@@ -2385,7 +2428,7 @@
         <v>11306</v>
       </c>
     </row>
-    <row r="7" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:129">
       <c r="A7" s="2" t="s">
         <v>130</v>
       </c>
@@ -2588,7 +2631,7 @@
         <v>7609</v>
       </c>
     </row>
-    <row r="8" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:129">
       <c r="A8" s="2" t="s">
         <v>131</v>
       </c>
@@ -2791,7 +2834,7 @@
         <v>34297</v>
       </c>
     </row>
-    <row r="9" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:129">
       <c r="A9" s="2" t="s">
         <v>132</v>
       </c>
@@ -2994,7 +3037,7 @@
         <v>19164</v>
       </c>
     </row>
-    <row r="10" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:129">
       <c r="A10" s="2" t="s">
         <v>133</v>
       </c>
@@ -3197,7 +3240,7 @@
         <v>28486</v>
       </c>
     </row>
-    <row r="11" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:129">
       <c r="A11" s="2" t="s">
         <v>134</v>
       </c>
@@ -3400,7 +3443,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="12" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:129">
       <c r="A12" s="2" t="s">
         <v>135</v>
       </c>
@@ -3603,7 +3646,7 @@
         <v>3170</v>
       </c>
     </row>
-    <row r="13" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:129">
       <c r="A13" s="2" t="s">
         <v>136</v>
       </c>
@@ -3806,7 +3849,7 @@
         <v>3651</v>
       </c>
     </row>
-    <row r="14" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:129">
       <c r="A14" s="2" t="s">
         <v>137</v>
       </c>
@@ -4009,7 +4052,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="15" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:129">
       <c r="A15" s="2" t="s">
         <v>138</v>
       </c>
@@ -4212,7 +4255,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="16" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:129">
       <c r="A16" s="2" t="s">
         <v>139</v>
       </c>
@@ -4415,7 +4458,7 @@
         <v>9977</v>
       </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67">
       <c r="A17" s="2" t="s">
         <v>140</v>
       </c>
@@ -4618,7 +4661,7 @@
         <v>10190</v>
       </c>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67">
       <c r="A18" s="2" t="s">
         <v>141</v>
       </c>
@@ -4821,7 +4864,7 @@
         <v>11025</v>
       </c>
     </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67">
       <c r="A19" s="2" t="s">
         <v>142</v>
       </c>
@@ -5024,7 +5067,7 @@
         <v>3658</v>
       </c>
     </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67">
       <c r="A20" s="2" t="s">
         <v>143</v>
       </c>
@@ -5227,7 +5270,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:67">
       <c r="A21" s="2" t="s">
         <v>144</v>
       </c>
@@ -5430,7 +5473,7 @@
         <v>11146</v>
       </c>
     </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:67">
       <c r="A22" s="2" t="s">
         <v>145</v>
       </c>
@@ -5633,7 +5676,7 @@
         <v>4212</v>
       </c>
     </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:67">
       <c r="A23" s="2" t="s">
         <v>146</v>
       </c>
@@ -5836,7 +5879,7 @@
         <v>8498</v>
       </c>
     </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:67">
       <c r="A24" s="2" t="s">
         <v>147</v>
       </c>
@@ -6039,7 +6082,7 @@
         <v>19154</v>
       </c>
     </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:67">
       <c r="A25" s="2" t="s">
         <v>148</v>
       </c>
@@ -6242,7 +6285,7 @@
         <v>11273</v>
       </c>
     </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:67">
       <c r="A26" s="2" t="s">
         <v>149</v>
       </c>
@@ -6445,7 +6488,7 @@
         <v>24117</v>
       </c>
     </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:67">
       <c r="A27" s="2" t="s">
         <v>150</v>
       </c>
@@ -6648,7 +6691,7 @@
         <v>19538</v>
       </c>
     </row>
-    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:67">
       <c r="A28" s="2" t="s">
         <v>151</v>
       </c>
@@ -6851,7 +6894,7 @@
         <v>4236</v>
       </c>
     </row>
-    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:67">
       <c r="A29" s="2" t="s">
         <v>152</v>
       </c>
@@ -7054,7 +7097,7 @@
         <v>5261</v>
       </c>
     </row>
-    <row r="30" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:67">
       <c r="A30" s="2" t="s">
         <v>153</v>
       </c>
@@ -7257,7 +7300,7 @@
         <v>15703</v>
       </c>
     </row>
-    <row r="31" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:67">
       <c r="A31" s="2" t="s">
         <v>154</v>
       </c>
@@ -7460,7 +7503,7 @@
         <v>8566</v>
       </c>
     </row>
-    <row r="32" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:67">
       <c r="A32" s="2" t="s">
         <v>155</v>
       </c>
@@ -7663,7 +7706,7 @@
         <v>12171</v>
       </c>
     </row>
-    <row r="33" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:67">
       <c r="A33" s="2" t="s">
         <v>156</v>
       </c>
@@ -7866,9 +7909,9 @@
         <v>9172</v>
       </c>
     </row>
-    <row r="34" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:67">
       <c r="A34" s="2" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="B34" s="2">
         <v>32</v>
@@ -8069,9 +8112,9 @@
         <v>9125</v>
       </c>
     </row>
-    <row r="35" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:67">
       <c r="A35" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" s="2">
         <v>33</v>
@@ -8272,9 +8315,9 @@
         <v>5989</v>
       </c>
     </row>
-    <row r="36" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:67">
       <c r="A36" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" s="2">
         <v>34</v>
@@ -8475,9 +8518,9 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="37" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:67">
       <c r="A37" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B37" s="2">
         <v>35</v>
@@ -8678,9 +8721,9 @@
         <v>6746</v>
       </c>
     </row>
-    <row r="38" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:67">
       <c r="A38" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B38" s="2">
         <v>36</v>
@@ -8881,9 +8924,9 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="39" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:67">
       <c r="A39" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" s="2">
         <v>37</v>
@@ -9084,9 +9127,9 @@
         <v>830</v>
       </c>
     </row>
-    <row r="40" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:67">
       <c r="A40" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B40" s="2">
         <v>38</v>
@@ -9287,9 +9330,9 @@
         <v>7316</v>
       </c>
     </row>
-    <row r="41" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:67">
       <c r="A41" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B41" s="2">
         <v>39</v>
@@ -9490,9 +9533,9 @@
         <v>6288</v>
       </c>
     </row>
-    <row r="42" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:67">
       <c r="A42" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B42" s="2">
         <v>40</v>
@@ -9693,9 +9736,9 @@
         <v>3609</v>
       </c>
     </row>
-    <row r="43" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:67">
       <c r="A43" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B43" s="2">
         <v>41</v>
@@ -9896,9 +9939,9 @@
         <v>8127</v>
       </c>
     </row>
-    <row r="44" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:67">
       <c r="A44" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B44" s="2">
         <v>42</v>
@@ -10099,9 +10142,9 @@
         <v>7272</v>
       </c>
     </row>
-    <row r="45" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:67">
       <c r="A45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B45" s="2">
         <v>43</v>
@@ -10302,9 +10345,9 @@
         <v>17708</v>
       </c>
     </row>
-    <row r="46" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:67">
       <c r="A46" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B46" s="2">
         <v>44</v>
@@ -10505,9 +10548,9 @@
         <v>8380</v>
       </c>
     </row>
-    <row r="47" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:67">
       <c r="A47" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B47" s="2">
         <v>45</v>
@@ -10708,9 +10751,9 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="48" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:67">
       <c r="A48" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" s="2">
         <v>46</v>
@@ -10911,9 +10954,9 @@
         <v>6582</v>
       </c>
     </row>
-    <row r="49" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:67">
       <c r="A49" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B49" s="2">
         <v>47</v>
@@ -11114,9 +11157,9 @@
         <v>524</v>
       </c>
     </row>
-    <row r="50" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:67">
       <c r="A50" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50" s="2">
         <v>48</v>
@@ -11317,9 +11360,9 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="51" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:67">
       <c r="A51" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B51" s="2">
         <v>49</v>
@@ -11520,9 +11563,9 @@
         <v>6604</v>
       </c>
     </row>
-    <row r="52" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:67">
       <c r="A52" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B52" s="2">
         <v>50</v>
@@ -11723,9 +11766,9 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="53" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:67">
       <c r="A53" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B53" s="2">
         <v>51</v>
@@ -11926,9 +11969,9 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="54" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:67">
       <c r="A54" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B54" s="2">
         <v>52</v>
@@ -12129,9 +12172,9 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="55" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:67">
       <c r="A55" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B55" s="2">
         <v>53</v>
@@ -12332,9 +12375,9 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="56" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:67">
       <c r="A56" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B56" s="2">
         <v>54</v>
@@ -12535,9 +12578,9 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="57" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:67">
       <c r="A57" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" s="2">
         <v>55</v>
@@ -12738,9 +12781,9 @@
         <v>895</v>
       </c>
     </row>
-    <row r="58" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:67">
       <c r="A58" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B58" s="2">
         <v>56</v>
@@ -12941,9 +12984,9 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="59" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:67">
       <c r="A59" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B59" s="2">
         <v>57</v>
@@ -13144,9 +13187,9 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="60" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:67">
       <c r="A60" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B60" s="2">
         <v>58</v>
@@ -13347,9 +13390,9 @@
         <v>6772</v>
       </c>
     </row>
-    <row r="61" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:67">
       <c r="A61" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B61" s="2">
         <v>59</v>
@@ -13550,9 +13593,9 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="62" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:67">
       <c r="A62" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B62" s="2">
         <v>60</v>
@@ -13753,9 +13796,9 @@
         <v>7090</v>
       </c>
     </row>
-    <row r="63" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:67">
       <c r="A63" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B63" s="2">
         <v>61</v>
@@ -13956,9 +13999,9 @@
         <v>8043</v>
       </c>
     </row>
-    <row r="64" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:67">
       <c r="A64" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B64" s="2">
         <v>62</v>
@@ -14159,9 +14202,9 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="65" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:67">
       <c r="A65" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B65" s="2">
         <v>63</v>
@@ -14362,9 +14405,9 @@
         <v>4381</v>
       </c>
     </row>
-    <row r="66" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:67">
       <c r="A66" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B66" s="2">
         <v>64</v>
@@ -14565,9 +14608,9 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="67" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:67">
       <c r="A67" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B67" s="2">
         <v>65</v>
@@ -14768,9 +14811,9 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="68" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:67">
       <c r="A68" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B68" s="2">
         <v>66</v>
@@ -14971,9 +15014,9 @@
         <v>8246</v>
       </c>
     </row>
-    <row r="69" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:67">
       <c r="A69" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B69" s="2">
         <v>67</v>
@@ -15174,9 +15217,9 @@
         <v>5553</v>
       </c>
     </row>
-    <row r="70" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:67">
       <c r="A70" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B70" s="2">
         <v>68</v>
@@ -15377,9 +15420,9 @@
         <v>7384</v>
       </c>
     </row>
-    <row r="71" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:67">
       <c r="A71" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B71" s="2">
         <v>69</v>
@@ -15580,9 +15623,9 @@
         <v>8369</v>
       </c>
     </row>
-    <row r="72" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:67">
       <c r="A72" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B72" s="2">
         <v>70</v>
@@ -15783,9 +15826,9 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="73" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:67">
       <c r="A73" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B73" s="2">
         <v>71</v>
@@ -15986,9 +16029,9 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="74" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:67">
       <c r="A74" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B74" s="2">
         <v>72</v>
@@ -16189,9 +16232,9 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="75" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:67">
       <c r="A75" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B75" s="2">
         <v>73</v>
@@ -16392,9 +16435,9 @@
         <v>2935</v>
       </c>
     </row>
-    <row r="76" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:67">
       <c r="A76" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B76" s="2">
         <v>74</v>
@@ -16595,9 +16638,9 @@
         <v>995</v>
       </c>
     </row>
-    <row r="77" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:67">
       <c r="A77" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B77" s="2">
         <v>75</v>
@@ -16798,9 +16841,9 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="78" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:67">
       <c r="A78" s="2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B78" s="2">
         <v>76</v>
@@ -17001,9 +17044,9 @@
         <v>3403</v>
       </c>
     </row>
-    <row r="79" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:67">
       <c r="A79" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B79" s="2">
         <v>77</v>
